--- a/data/trans_dic/P2A_psíq_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_psíq_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,22 +724,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,73</t>
+          <t>0,0; 4,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 8,57</t>
+          <t>0,74; 8,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,73</t>
+          <t>0,0; 4,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,26</t>
+          <t>0,0; 4,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,37 +749,37 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 8,22</t>
+          <t>0,85; 9,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 6,98</t>
+          <t>0,81; 6,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 6,39</t>
+          <t>1,09; 6,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,34</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,08</t>
+          <t>1,1; 6,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,83</t>
+          <t>0,43; 4,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,35</t>
+          <t>0,92; 4,16</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,54</t>
+          <t>0,17; 1,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,31</t>
+          <t>1,22; 4,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,16</t>
+          <t>0,39; 2,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,38</t>
+          <t>0,5; 2,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,38</t>
+          <t>0,0; 1,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,76</t>
+          <t>1,82; 4,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,27</t>
+          <t>0,35; 2,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,46</t>
+          <t>1,5; 3,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,04</t>
+          <t>0,18; 1,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,95</t>
+          <t>1,87; 4,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,73</t>
+          <t>0,54; 1,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,46</t>
+          <t>1,23; 2,5</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,14</t>
+          <t>0,63; 2,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,46</t>
+          <t>0,91; 2,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,25</t>
+          <t>0,61; 2,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 2,92</t>
+          <t>1,13; 2,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,99</t>
+          <t>0,51; 1,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,77</t>
+          <t>1,04; 2,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,57</t>
+          <t>0,94; 2,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 3,87</t>
+          <t>2,07; 3,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 1,76</t>
+          <t>0,71; 1,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,32</t>
+          <t>1,18; 2,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,12</t>
+          <t>0,96; 2,11</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,08</t>
+          <t>1,81; 3,11</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,76</t>
+          <t>0,15; 1,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,17</t>
+          <t>0,52; 2,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,45</t>
+          <t>0,14; 1,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,85</t>
+          <t>2,07; 4,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,18</t>
+          <t>0,93; 2,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,22</t>
+          <t>0,53; 2,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,24</t>
+          <t>0,52; 2,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 44,0</t>
+          <t>2,92; 44,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,9</t>
+          <t>0,71; 2,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,86</t>
+          <t>0,65; 1,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,47</t>
+          <t>0,46; 1,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 29,82</t>
+          <t>2,93; 29,85</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,98</t>
+          <t>0,46; 1,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,5</t>
+          <t>1,4; 3,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,5</t>
+          <t>0,4; 1,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,63</t>
+          <t>1,85; 4,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,04</t>
+          <t>0,64; 2,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,49</t>
+          <t>1,54; 3,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,51</t>
+          <t>1,39; 3,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,13</t>
+          <t>2,31; 4,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,61</t>
+          <t>0,71; 1,7</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,19</t>
+          <t>1,7; 3,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,2</t>
+          <t>1,02; 2,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,93</t>
+          <t>2,41; 3,81</t>
         </is>
       </c>
     </row>
@@ -1424,52 +1424,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,31</t>
+          <t>0,63; 1,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,44</t>
+          <t>1,41; 2,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,31</t>
+          <t>0,64; 1,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,94</t>
+          <t>1,82; 2,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,56</t>
+          <t>0,79; 1,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,59</t>
+          <t>1,65; 2,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,11</t>
+          <t>1,17; 2,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,79; 15,62</t>
+          <t>2,78; 15,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,28</t>
+          <t>0,77; 1,27</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,31</t>
+          <t>1,65; 2,34</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,51; 10,44</t>
+          <t>2,54; 9,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_psíq_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_psíq_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,81%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,64</t>
+          <t>0,27; 1,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 8,56</t>
+          <t>1,39; 4,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,35</t>
+          <t>0,43; 2,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,47</t>
+          <t>0,57; 2,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>0,14; 1,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 9,23</t>
+          <t>1,86; 4,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,95</t>
+          <t>0,55; 2,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,25</t>
+          <t>1,58; 3,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>0,28; 1,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,35</t>
+          <t>1,9; 3,94</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,16</t>
+          <t>0,66; 1,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,16</t>
+          <t>1,22; 2,45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>2,02%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,68</t>
+          <t>0,63; 2,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,6</t>
+          <t>0,91; 2,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,19</t>
+          <t>0,61; 2,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,24</t>
+          <t>0,66; 2,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,23</t>
+          <t>0,6; 2,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,67</t>
+          <t>1,04; 2,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,07</t>
+          <t>0,94; 2,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,49</t>
+          <t>2,0; 3,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,08</t>
+          <t>0,73; 1,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,06</t>
+          <t>1,18; 2,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,72</t>
+          <t>0,96; 2,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,5</t>
+          <t>1,37; 2,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>15,18%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,29</t>
+          <t>0,15; 1,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,6</t>
+          <t>0,52; 2,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,17</t>
+          <t>0,14; 1,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,93</t>
+          <t>1,99; 4,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,92</t>
+          <t>0,93; 2,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,72</t>
+          <t>0,53; 2,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,51</t>
+          <t>0,52; 2,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,81</t>
+          <t>2,66; 59,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,72</t>
+          <t>0,71; 2,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,33</t>
+          <t>0,65; 1,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,11</t>
+          <t>0,46; 1,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,11</t>
+          <t>2,75; 44,16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>2,99%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,52</t>
+          <t>0,46; 1,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,44</t>
+          <t>1,4; 3,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,56</t>
+          <t>0,4; 1,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,87</t>
+          <t>1,88; 4,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,98</t>
+          <t>0,64; 2,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,1</t>
+          <t>1,54; 3,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,13</t>
+          <t>1,46; 3,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 44,33</t>
+          <t>2,16; 4,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,0</t>
+          <t>0,71; 1,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,83</t>
+          <t>1,7; 3,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,49</t>
+          <t>1,05; 2,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,93; 29,85</t>
+          <t>2,32; 3,82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,91</t>
+          <t>0,63; 1,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,47</t>
+          <t>1,41; 2,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,6</t>
+          <t>0,64; 1,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,28</t>
+          <t>1,61; 2,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,01</t>
+          <t>0,84; 1,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,55</t>
+          <t>1,65; 2,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,36</t>
+          <t>1,21; 2,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,1</t>
+          <t>2,69; 24,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,7</t>
+          <t>0,79; 1,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,11</t>
+          <t>1,65; 2,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,18</t>
+          <t>1,03; 1,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,81</t>
+          <t>2,36; 14,72</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,91%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,85%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,94%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,29%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,09%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,59%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,73%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1,01%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>1,97%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>1,27%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>4,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 1,35</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,41; 2,43</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 1,32</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,82; 2,9</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,79; 1,57</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 2,62</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 2,05</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2,78; 15,34</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 1,27</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 2,34</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 1,57</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 9,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P2A_psíq_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_psíq_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad psíquica</t>
+          <t>Hogares con personas con limitación por discapacidad psíquica</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,56</t>
+          <t>0,26; 1,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,17</t>
+          <t>1,51; 4,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,07</t>
+          <t>0,42; 1,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,19</t>
+          <t>0,53; 2,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,27</t>
+          <t>0,14; 1,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,58</t>
+          <t>1,98; 4,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,28</t>
+          <t>0,56; 2,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,57</t>
+          <t>1,62; 3,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,13</t>
+          <t>0,28; 1,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,94</t>
+          <t>1,9; 3,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,87</t>
+          <t>0,64; 1,82</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,45</t>
+          <t>1,28; 2,56</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,29</t>
+          <t>0,58; 2,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,6</t>
+          <t>0,91; 2,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,17</t>
+          <t>0,67; 2,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,42</t>
+          <t>0,66; 2,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,12</t>
+          <t>0,57; 2,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,72</t>
+          <t>1,06; 2,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,51</t>
+          <t>0,89; 2,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 3,71</t>
+          <t>2,0; 3,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,81</t>
+          <t>0,77; 1,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,33</t>
+          <t>1,2; 2,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,11</t>
+          <t>0,95; 2,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,69</t>
+          <t>1,38; 2,71</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,52</t>
+          <t>0,15; 1,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,44</t>
+          <t>0,4; 2,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,56</t>
+          <t>0,14; 1,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,74</t>
+          <t>1,91; 4,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,98</t>
+          <t>1,09; 3,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,1</t>
+          <t>0,64; 2,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,13</t>
+          <t>0,5; 2,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 59,96</t>
+          <t>2,6; 56,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,0</t>
+          <t>0,73; 2,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,83</t>
+          <t>0,67; 1,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,49</t>
+          <t>0,46; 1,51</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 44,16</t>
+          <t>2,77; 42,98</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,91</t>
+          <t>0,44; 1,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,47</t>
+          <t>1,42; 3,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,6</t>
+          <t>0,31; 1,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,49</t>
+          <t>1,86; 4,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,01</t>
+          <t>0,59; 2,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,55</t>
+          <t>1,53; 3,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,44</t>
+          <t>1,43; 3,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,08</t>
+          <t>2,14; 4,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,7</t>
+          <t>0,68; 1,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,11</t>
+          <t>1,69; 3,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,23</t>
+          <t>1,03; 2,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 3,82</t>
+          <t>2,28; 3,93</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,35</t>
+          <t>0,6; 1,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,43</t>
+          <t>1,34; 2,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,32</t>
+          <t>0,66; 1,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,75</t>
+          <t>1,61; 2,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,64</t>
+          <t>0,85; 1,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,62</t>
+          <t>1,64; 2,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,09</t>
+          <t>1,23; 2,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,69; 24,34</t>
+          <t>2,67; 25,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,31</t>
+          <t>0,81; 1,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,34</t>
+          <t>1,63; 2,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,58</t>
+          <t>1,02; 1,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 14,72</t>
+          <t>2,33; 15,07</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con limitación por discapacidad psíquica</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4915</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18201</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6974</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7254</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2954</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21253</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8082</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17439</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7869</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>39454</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15057</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>24693</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1826; 10875</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10626; 29904</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2853; 13308</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3374; 13497</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>950; 7996</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13782; 32691</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3788; 15092</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11774; 25675</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3910; 15484</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>26665; 53779</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8560; 24477</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17457; 34839</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11944</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>15665</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12782</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17137</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11385</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>18547</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16502</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26287</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>23329</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>34212</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>29285</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>43424</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5564; 20242</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9215; 26185</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6893; 23021</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7912; 27714</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5510; 20066</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10966; 29357</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9266; 27098</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19169; 34480</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14937; 34345</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>24609; 48475</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>19540; 43562</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>29639; 58358</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3774</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8331</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>21645</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12886</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9138</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8898</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>227057</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16660</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>17469</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13434</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>248702</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>987; 10026</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3063; 16803</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1063; 12214</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13487; 33534</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7446; 22307</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4946; 16857</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3896; 16770</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>24280; 531579</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9934; 27749</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10349; 28462</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7159; 23279</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>45372; 704076</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9108</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>21314</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7608</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>26949</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>12250</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>25277</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>23806</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>33445</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>21358</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>46592</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>31414</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>60394</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4120; 17293</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>13468; 34672</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2870; 14321</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>17198; 41823</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6130; 20872</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>16133; 38147</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>14911; 35750</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>23460; 45596</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>13390; 31861</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>33778; 62863</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>20494; 43230</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>46152; 79429</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>29741</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>63511</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>31901</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>72985</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>39476</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>74215</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>57288</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>304229</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>69216</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>137726</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>89190</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>377213</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>19763; 41995</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>46068; 81624</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>22447; 45701</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>55572; 96163</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>28622; 53787</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>58274; 95142</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>43518; 74307</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>99266; 948285</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>53688; 87187</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>113673; 164089</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>70551; 109519</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>166849; 1081122</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>